--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ly86-Cd180.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ly86-Cd180.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Ly86</t>
+  </si>
+  <si>
+    <t>Cd180</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Ly86</t>
-  </si>
-  <si>
-    <t>Cd180</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4933343333333334</v>
+        <v>0.2604763333333334</v>
       </c>
       <c r="H2">
-        <v>1.480003</v>
+        <v>0.7814290000000002</v>
       </c>
       <c r="I2">
-        <v>0.00370458607201813</v>
+        <v>0.002013145958083725</v>
       </c>
       <c r="J2">
-        <v>0.00370458607201813</v>
+        <v>0.002013145958083725</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.349047333333333</v>
+        <v>2.776312666666667</v>
       </c>
       <c r="N2">
-        <v>4.047142</v>
+        <v>8.328938000000001</v>
       </c>
       <c r="O2">
-        <v>0.0190104476758723</v>
+        <v>0.04197717588854396</v>
       </c>
       <c r="P2">
-        <v>0.0190104476758723</v>
+        <v>0.04197717588854395</v>
       </c>
       <c r="Q2">
-        <v>0.6655313668251112</v>
+        <v>0.7231637436002224</v>
       </c>
       <c r="R2">
-        <v>5.989782301426001</v>
+        <v>6.508473692402002</v>
       </c>
       <c r="S2">
-        <v>7.042583968286594E-05</v>
+        <v>8.450618197179186E-05</v>
       </c>
       <c r="T2">
-        <v>7.042583968286594E-05</v>
+        <v>8.450618197179185E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,46 +599,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4933343333333334</v>
+        <v>0.2604763333333334</v>
       </c>
       <c r="H3">
-        <v>1.480003</v>
+        <v>0.7814290000000002</v>
       </c>
       <c r="I3">
-        <v>0.00370458607201813</v>
+        <v>0.002013145958083725</v>
       </c>
       <c r="J3">
-        <v>0.00370458607201813</v>
+        <v>0.002013145958083725</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.613109</v>
+        <v>0.1430836666666667</v>
       </c>
       <c r="N3">
-        <v>4.839327</v>
+        <v>0.429251</v>
       </c>
       <c r="O3">
-        <v>0.0227315406081467</v>
+        <v>0.002163390425926256</v>
       </c>
       <c r="P3">
-        <v>0.0227315406081467</v>
+        <v>0.002163390425926256</v>
       </c>
       <c r="Q3">
-        <v>0.795802053109</v>
+        <v>0.03726990885322223</v>
       </c>
       <c r="R3">
-        <v>7.162218477981001</v>
+        <v>0.335429179679</v>
       </c>
       <c r="S3">
-        <v>8.421094873245479E-05</v>
+        <v>4.355220691710471E-06</v>
       </c>
       <c r="T3">
-        <v>8.421094873245479E-05</v>
+        <v>4.35522069171047E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4933343333333334</v>
+        <v>0.2604763333333334</v>
       </c>
       <c r="H4">
-        <v>1.480003</v>
+        <v>0.7814290000000002</v>
       </c>
       <c r="I4">
-        <v>0.00370458607201813</v>
+        <v>0.002013145958083725</v>
       </c>
       <c r="J4">
-        <v>0.00370458607201813</v>
+        <v>0.002013145958083725</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.00131366666666</v>
+        <v>63.21922800000001</v>
       </c>
       <c r="N4">
-        <v>204.003941</v>
+        <v>189.657684</v>
       </c>
       <c r="O4">
-        <v>0.9582580117159809</v>
+        <v>0.9558594336855298</v>
       </c>
       <c r="P4">
-        <v>0.958258011715981</v>
+        <v>0.9558594336855297</v>
       </c>
       <c r="Q4">
-        <v>33.54738274353589</v>
+        <v>16.46711270560401</v>
       </c>
       <c r="R4">
-        <v>301.926444691823</v>
+        <v>148.204014350436</v>
       </c>
       <c r="S4">
-        <v>0.003549949283602809</v>
+        <v>0.001924284555420223</v>
       </c>
       <c r="T4">
-        <v>0.003549949283602809</v>
+        <v>0.001924284555420222</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,25 +714,25 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.730632333333333</v>
+        <v>0.4933343333333333</v>
       </c>
       <c r="H5">
-        <v>5.191897</v>
+        <v>1.480003</v>
       </c>
       <c r="I5">
-        <v>0.01299580427441884</v>
+        <v>0.003812837836069287</v>
       </c>
       <c r="J5">
-        <v>0.01299580427441884</v>
+        <v>0.003812837836069287</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.349047333333333</v>
+        <v>2.776312666666667</v>
       </c>
       <c r="N5">
-        <v>4.047142</v>
+        <v>8.328938000000001</v>
       </c>
       <c r="O5">
-        <v>0.0190104476758723</v>
+        <v>0.04197717588854396</v>
       </c>
       <c r="P5">
-        <v>0.0190104476758723</v>
+        <v>0.04197717588854395</v>
       </c>
       <c r="Q5">
-        <v>2.334704934263778</v>
+        <v>1.369650358534889</v>
       </c>
       <c r="R5">
-        <v>21.012344408374</v>
+        <v>12.326853226814</v>
       </c>
       <c r="S5">
-        <v>0.0002470560571647169</v>
+        <v>0.0001600521644791758</v>
       </c>
       <c r="T5">
-        <v>0.0002470560571647169</v>
+        <v>0.0001600521644791758</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.730632333333333</v>
+        <v>0.4933343333333333</v>
       </c>
       <c r="H6">
-        <v>5.191897</v>
+        <v>1.480003</v>
       </c>
       <c r="I6">
-        <v>0.01299580427441884</v>
+        <v>0.003812837836069287</v>
       </c>
       <c r="J6">
-        <v>0.01299580427441884</v>
+        <v>0.003812837836069287</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.613109</v>
+        <v>0.1430836666666667</v>
       </c>
       <c r="N6">
-        <v>4.839327</v>
+        <v>0.429251</v>
       </c>
       <c r="O6">
-        <v>0.0227315406081467</v>
+        <v>0.002163390425926256</v>
       </c>
       <c r="P6">
-        <v>0.0227315406081467</v>
+        <v>0.002163390425926256</v>
       </c>
       <c r="Q6">
-        <v>2.791698592591</v>
+        <v>0.07058808530588889</v>
       </c>
       <c r="R6">
-        <v>25.125287333319</v>
+        <v>0.6352927677529999</v>
       </c>
       <c r="S6">
-        <v>0.0002954146525994784</v>
+        <v>8.248656870161679E-06</v>
       </c>
       <c r="T6">
-        <v>0.0002954146525994783</v>
+        <v>8.248656870161677E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1.730632333333333</v>
+        <v>0.4933343333333333</v>
       </c>
       <c r="H7">
-        <v>5.191897</v>
+        <v>1.480003</v>
       </c>
       <c r="I7">
-        <v>0.01299580427441884</v>
+        <v>0.003812837836069287</v>
       </c>
       <c r="J7">
-        <v>0.01299580427441884</v>
+        <v>0.003812837836069287</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>68.00131366666666</v>
+        <v>63.21922800000001</v>
       </c>
       <c r="N7">
-        <v>204.003941</v>
+        <v>189.657684</v>
       </c>
       <c r="O7">
-        <v>0.9582580117159809</v>
+        <v>0.9558594336855298</v>
       </c>
       <c r="P7">
-        <v>0.958258011715981</v>
+        <v>0.9558594336855297</v>
       </c>
       <c r="Q7">
-        <v>117.6852721406752</v>
+        <v>31.188215699228</v>
       </c>
       <c r="R7">
-        <v>1059.167449266077</v>
+        <v>280.693941293052</v>
       </c>
       <c r="S7">
-        <v>0.01245333356465465</v>
+        <v>0.003644537014719949</v>
       </c>
       <c r="T7">
-        <v>0.01245333356465465</v>
+        <v>0.003644537014719949</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>130.9445773333333</v>
+        <v>128.6338933333333</v>
       </c>
       <c r="H8">
-        <v>392.8337319999999</v>
+        <v>385.9016799999999</v>
       </c>
       <c r="I8">
-        <v>0.9832996096535631</v>
+        <v>0.9941740162058469</v>
       </c>
       <c r="J8">
-        <v>0.983299609653563</v>
+        <v>0.994174016205847</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.349047333333333</v>
+        <v>2.776312666666667</v>
       </c>
       <c r="N8">
-        <v>4.047142</v>
+        <v>8.328938000000001</v>
       </c>
       <c r="O8">
-        <v>0.0190104476758723</v>
+        <v>0.04197717588854396</v>
       </c>
       <c r="P8">
-        <v>0.0190104476758723</v>
+        <v>0.04197717588854395</v>
       </c>
       <c r="Q8">
-        <v>176.6504328659937</v>
+        <v>357.1279074239822</v>
       </c>
       <c r="R8">
-        <v>1589.853895793944</v>
+        <v>3214.15116681584</v>
       </c>
       <c r="S8">
-        <v>0.01869296577902472</v>
+        <v>0.04173261754209299</v>
       </c>
       <c r="T8">
-        <v>0.01869296577902471</v>
+        <v>0.04173261754209299</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +962,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>130.9445773333333</v>
+        <v>128.6338933333333</v>
       </c>
       <c r="H9">
-        <v>392.8337319999999</v>
+        <v>385.9016799999999</v>
       </c>
       <c r="I9">
-        <v>0.9832996096535631</v>
+        <v>0.9941740162058469</v>
       </c>
       <c r="J9">
-        <v>0.983299609653563</v>
+        <v>0.994174016205847</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.613109</v>
+        <v>0.1430836666666667</v>
       </c>
       <c r="N9">
-        <v>4.839327</v>
+        <v>0.429251</v>
       </c>
       <c r="O9">
-        <v>0.0227315406081467</v>
+        <v>0.002163390425926256</v>
       </c>
       <c r="P9">
-        <v>0.0227315406081467</v>
+        <v>0.002163390425926256</v>
       </c>
       <c r="Q9">
-        <v>211.2278761975959</v>
+        <v>18.40540911574222</v>
       </c>
       <c r="R9">
-        <v>1901.050885778364</v>
+        <v>165.64868204168</v>
       </c>
       <c r="S9">
-        <v>0.02235191500681477</v>
+        <v>0.002150786548364384</v>
       </c>
       <c r="T9">
-        <v>0.02235191500681476</v>
+        <v>0.002150786548364384</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>130.9445773333333</v>
+        <v>128.6338933333333</v>
       </c>
       <c r="H10">
-        <v>392.8337319999999</v>
+        <v>385.9016799999999</v>
       </c>
       <c r="I10">
-        <v>0.9832996096535631</v>
+        <v>0.9941740162058469</v>
       </c>
       <c r="J10">
-        <v>0.983299609653563</v>
+        <v>0.994174016205847</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.00131366666666</v>
+        <v>63.21922800000001</v>
       </c>
       <c r="N10">
-        <v>204.003941</v>
+        <v>189.657684</v>
       </c>
       <c r="O10">
-        <v>0.9582580117159809</v>
+        <v>0.9558594336855298</v>
       </c>
       <c r="P10">
-        <v>0.958258011715981</v>
+        <v>0.9558594336855297</v>
       </c>
       <c r="Q10">
-        <v>8904.403276193088</v>
+        <v>8132.13543116768</v>
       </c>
       <c r="R10">
-        <v>80139.62948573779</v>
+        <v>73189.21888050911</v>
       </c>
       <c r="S10">
-        <v>0.9422547288677235</v>
+        <v>0.9502906121153896</v>
       </c>
       <c r="T10">
-        <v>0.9422547288677235</v>
+        <v>0.9502906121153896</v>
       </c>
     </row>
   </sheetData>
